--- a/console/Networking/iaas网络与容器中文提取/dockerExcel/components/dockerNet.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/dockerExcel/components/dockerNet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <r>
       <rPr>
@@ -485,18 +480,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Creation Time</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Operations</t>
     </r>
   </si>
@@ -545,36 +528,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/Network IAM of container,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Cancel</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-  </si>
-  <si>
-    <t>Security group is a kind of distributed virtual firewall with status, which users use to implement virtual machines</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Confirm to remove the security group associated to the container</t>
@@ -590,6 +545,18 @@
   </si>
   <si>
     <t>Remove security group'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security group is a stateful distributed virtual firewall, used to realize the network identity and access management of the VM/Container</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,6 +574,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -633,12 +615,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -980,20 +968,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="32.6640625" style="1"/>
     <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="32.6640625" style="1"/>
+    <col min="4" max="4" width="32.6640625" style="3"/>
+    <col min="5" max="16384" width="32.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1026,7 +1015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,10 +1034,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,21 +1046,21 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,10 +1068,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1089,10 +1079,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1100,10 +1090,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1111,10 +1101,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1122,21 +1112,19 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1144,10 +1132,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1155,10 +1143,11 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1166,7 +1155,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1177,12 +1166,13 @@
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B17" numberStoredAsText="1"/>
   </ignoredErrors>
